--- a/Excel/Data Professionals Excel.xlsx
+++ b/Excel/Data Professionals Excel.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\PycharmProjects\data_professionals\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DEB58-7A72-47C1-811B-D3EE6E23EB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABA8C1-745C-4CC9-B825-05D4BF483F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{0F226E56-7645-40CB-A21F-5BE1A9F429EC}"/>
   </bookViews>
@@ -36,13 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Analysis of Data Using Pivot Tables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. What are the most well established database systems in the market?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -93,10 +89,6 @@
     <t>Amazon RDS (any flavor)</t>
   </si>
   <si>
-    <t>2. Average Salary by Professions and Regions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>The most popular jobs related to data management</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,13 +99,7 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>Developer: App code (C#, JS, etc)</t>
-  </si>
-  <si>
     <t>Developer: T-SQL</t>
-  </si>
-  <si>
-    <t>Developer: Business Intelligence (SSRS, PowerBI, etc)</t>
   </si>
   <si>
     <t>DBA</t>
@@ -202,6 +188,21 @@
   <si>
     <t>Professionals in the U.S. get higher salaries for all jobs</t>
   </si>
+  <si>
+    <t>1. The most well established database systems in the market?</t>
+  </si>
+  <si>
+    <t>Developer: Business Intelligence</t>
+  </si>
+  <si>
+    <t>Developer: App code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer: Business Intelligence </t>
+  </si>
+  <si>
+    <t>2. Average Salary by Professions and Regions</t>
+  </si>
 </sst>
 </file>
 
@@ -210,10 +211,10 @@
   <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -318,6 +319,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -375,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -465,19 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -510,19 +505,6 @@
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -564,11 +546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -578,20 +573,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -604,67 +592,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="5" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="7" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -674,250 +641,62 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="261">
+  <dxfs count="211">
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -936,210 +715,9 @@
     </dxf>
     <dxf>
       <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1158,141 +736,9 @@
     </dxf>
     <dxf>
       <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
       </border>
     </dxf>
     <dxf>
@@ -1310,23 +756,60 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1420,16 +903,40 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
-        <right style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </right>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -1489,105 +996,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <border>
-        <right style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </right>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <right style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </right>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border>
@@ -1662,7 +1094,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1671,10 +1103,168 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1704,22 +1294,22 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border>
@@ -1902,7 +1492,27 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -1990,6 +1600,19 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2018,22 +1641,22 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border>
@@ -2216,10 +1839,21 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2227,6 +1861,32 @@
           <color indexed="64"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <border>
@@ -2295,10 +1955,23 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </left>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <border>
@@ -2488,7 +2161,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Pivot Tables and Data Visualization Using Excel.xlsx]Analysis!PivotTable7</c:name>
+    <c:name>[Data Professionals Excel.xlsx]Analysis!PivotTable7</c:name>
     <c:fmtId val="37"/>
   </c:pivotSource>
   <c:chart>
@@ -2548,7 +2221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2596,7 +2269,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2652,7 +2325,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2833,7 +2506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="865408864"/>
@@ -2892,7 +2565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1193944432"/>
@@ -2934,7 +2607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2971,7 +2644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3012,7 +2685,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Pivot Tables and Data Visualization Using Excel.xlsx]Analysis!PivotTable2</c:name>
+    <c:name>[Data Professionals Excel.xlsx]Analysis!PivotTable2</c:name>
     <c:fmtId val="39"/>
   </c:pivotSource>
   <c:chart>
@@ -3067,7 +2740,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3115,7 +2788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3171,7 +2844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3346,7 +3019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1009009936"/>
@@ -3405,7 +3078,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1329420544"/>
@@ -3447,7 +3120,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3484,7 +3157,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3576,7 +3249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3592,7 +3265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$75</c:f>
+              <c:f>Analysis!$B$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3613,14 +3286,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$76:$A$85</c:f>
+              <c:f>Analysis!$A$75:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analyst</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Developer: App code (C#, JS, etc)</c:v>
+                  <c:v>Developer: App code</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Developer: T-SQL</c:v>
@@ -3632,7 +3305,7 @@
                   <c:v>DBA (General)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Developer: Business Intelligence (SSRS, PowerBI, etc)</c:v>
+                  <c:v>Developer: Business Intelligence</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>DBA (Production Focus)</c:v>
@@ -3651,7 +3324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$76:$B$85</c:f>
+              <c:f>Analysis!$B$75:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3699,7 +3372,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$C$75</c:f>
+              <c:f>Analysis!$C$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3720,14 +3393,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$76:$A$85</c:f>
+              <c:f>Analysis!$A$75:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analyst</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Developer: App code (C#, JS, etc)</c:v>
+                  <c:v>Developer: App code</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Developer: T-SQL</c:v>
@@ -3739,7 +3412,7 @@
                   <c:v>DBA (General)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Developer: Business Intelligence (SSRS, PowerBI, etc)</c:v>
+                  <c:v>Developer: Business Intelligence</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>DBA (Production Focus)</c:v>
@@ -3758,7 +3431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$C$76:$C$85</c:f>
+              <c:f>Analysis!$C$75:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3855,7 +3528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="431763584"/>
@@ -3914,7 +3587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667650704"/>
@@ -3956,7 +3629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3993,7 +3666,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4018,7 +3691,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Pivot Tables and Data Visualization Using Excel.xlsx]Analysis!PivotTable9</c:name>
+    <c:name>[Data Professionals Excel.xlsx]Analysis!PivotTable9</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -4042,14 +3715,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
               <a:t>Job Location by</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:rPr lang="en-US" altLang="ko-KR" b="1" baseline="0"/>
               <a:t> Countries</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4057,8 +3730,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24091666666666667"/>
-          <c:y val="0.12397929425488481"/>
+          <c:x val="0.24091669700917176"/>
+          <c:y val="5.8058742861651247E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4086,7 +3759,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4141,7 +3814,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4223,7 +3896,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4491,7 +4164,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$92</c:f>
+              <c:f>Analysis!$B$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4783,7 +4456,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4813,7 +4486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$93:$A$103</c:f>
+              <c:f>Analysis!$A$92:$A$102</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4851,7 +4524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$93:$B$103</c:f>
+              <c:f>Analysis!$B$92:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4949,7 +4622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4986,7 +4659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7209,16 +6882,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120771</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86264</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414068</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7247,16 +6920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17254</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>155275</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94890</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>120770</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405441</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86263</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7286,15 +6959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>73323</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>17253</xdr:rowOff>
+      <xdr:colOff>746183</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>159587</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129396</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7323,16 +6996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17254</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>21563</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43134</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>163900</xdr:rowOff>
+      <xdr:colOff>612477</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -76134,107 +75807,107 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of PrimaryDatabase" fld="2" subtotal="count" baseField="2" baseItem="0" numFmtId="176"/>
+    <dataField name="Count of PrimaryDatabase" fld="2" subtotal="count" baseField="2" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="36">
-    <format dxfId="184">
+  <formats count="39">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="116">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="115">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="114">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="111">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="110">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="109">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="108">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="105">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="104">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="102">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="100">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="98">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="96">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="91">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="10">
@@ -76252,16 +75925,40 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="84">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="82">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="10">
+            <x v="1"/>
+            <x v="3"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -76308,7 +76005,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AACA460-5EE2-4DD6-A61E-BA0326DAC721}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30" rowHeaderCaption="Top 10 Most Wanted Data Professions">
-  <location ref="A61:C72" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A60:C71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0">
       <items count="1131">
@@ -77558,8 +77255,8 @@
         <item x="3"/>
         <item x="11"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
+        <item n="Developer: Business Intelligence " x="5"/>
+        <item n="Developer: App code" x="2"/>
         <item x="17"/>
         <item n="DBA (Production Focus)" x="22"/>
         <item n="DBA (General)" x="20"/>
@@ -77643,34 +77340,34 @@
     <dataField name="Count of JobTitle" fld="5" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Average of Salary (USD)" fld="0" subtotal="average" baseField="5" baseItem="16" numFmtId="7"/>
   </dataFields>
-  <formats count="17">
-    <format dxfId="197">
+  <formats count="20">
+    <format dxfId="134">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="131">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="130">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="129">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="10">
@@ -77688,10 +77385,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -77701,7 +77398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="125">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -77710,7 +77407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -77719,7 +77416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="123">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -77728,7 +77425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="122">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -77737,10 +77434,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="121">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -77750,10 +77447,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="119">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -77762,6 +77459,30 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="10">
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -79124,127 +78845,134 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of PrimaryDatabase" fld="2" subtotal="count" baseField="2" baseItem="0" numFmtId="176"/>
+    <dataField name="Count of PrimaryDatabase" fld="2" subtotal="count" baseField="2" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="37">
-    <format dxfId="231">
+  <formats count="38">
+    <format dxfId="171">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="230">
+    <format dxfId="170">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="229">
+    <format dxfId="169">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="228">
+    <format dxfId="168">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="227">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="165">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="164">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="163">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="162">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="221">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="220">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="159">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="158">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="154">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="152">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="150">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="147">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="146">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="145">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="140">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="137">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="135">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <chartFormats count="3">
@@ -79290,7 +79018,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68C372FC-13A7-41E0-B957-7A857C014078}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="48" rowHeaderCaption="Top 10 Most Wanted Data Professions">
-  <location ref="A46:C57" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A45:C56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -79310,8 +79038,8 @@
         <item n="DBA (General)" x="20"/>
         <item n="DBA (Production Focus)" x="22"/>
         <item x="17"/>
-        <item x="2"/>
-        <item x="5"/>
+        <item n="Developer: App code" x="2"/>
+        <item n="Developer: Business Intelligence" x="5"/>
         <item x="4"/>
         <item x="11"/>
         <item x="3"/>
@@ -79389,16 +79117,16 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count of JobTitle" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Salary (USD)" fld="0" subtotal="average" baseField="5" baseItem="2" numFmtId="177"/>
+    <dataField name="Average of Salary (USD)" fld="0" subtotal="average" baseField="5" baseItem="2" numFmtId="165"/>
   </dataFields>
-  <formats count="15">
-    <format dxfId="238">
+  <formats count="17">
+    <format dxfId="185">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="183">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="10">
@@ -79416,7 +79144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="10">
@@ -79434,7 +79162,94 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="181">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="10">
+            <x v="0"/>
+            <x v="2"/>
+            <x v="6"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="180">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="179">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="178">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="177">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="176">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="175">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="174">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="173">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="10">
@@ -79452,89 +79267,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="10">
-            <x v="0"/>
-            <x v="2"/>
-            <x v="6"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="11"/>
-            <x v="12"/>
-            <x v="13"/>
-            <x v="15"/>
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="232">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="149">
+    <format dxfId="1">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="148">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="138">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="137">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <chartFormats count="1">
@@ -79571,7 +79305,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4EC0CF4-C952-41F5-8F6E-DE2E0AA82356}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Country">
-  <location ref="A92:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A91:B102" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="1131">
@@ -80886,8 +80620,8 @@
   <dataFields count="1">
     <dataField name="Count of JobTitle" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="26">
-    <format dxfId="260">
+  <formats count="29">
+    <format dxfId="210">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80896,7 +80630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="209">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80905,7 +80639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="208">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80914,7 +80648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="207">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80923,7 +80657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="206">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80932,7 +80666,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="255">
+    <format dxfId="205">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80941,7 +80675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="254">
+    <format dxfId="204">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80950,7 +80684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="203">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80959,7 +80693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="202">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80968,7 +80702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="251">
+    <format dxfId="201">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -80977,7 +80711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="250">
+    <format dxfId="200">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="10">
@@ -80995,7 +80729,115 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="249">
+    <format dxfId="199">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="52"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="198">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="69"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="197">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="51"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="196">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="195">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="71"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="194">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="193">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="192">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="191">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="79"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="190">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="189">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="188">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="186">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="10">
@@ -81013,107 +80855,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="52"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="247">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="69"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="246">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="51"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="245">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="25"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="244">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="71"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="243">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="33"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="242">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="241">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="240">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="79"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="239">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
+    <format dxfId="3">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="13">
@@ -81586,10 +81329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B0515-3EF3-4307-9CF6-6B70BF0E0FA5}">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -81629,1850 +81372,1902 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="P5" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11">
+        <v>194</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5643</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>5989</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="11">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="11">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="11">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="11">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11">
+        <v>34</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11">
+        <v>194</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12">
+        <v>345</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="18">
+        <v>292</v>
+      </c>
+      <c r="C46" s="35">
+        <v>75514.204575342475</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="18">
+        <v>440</v>
+      </c>
+      <c r="C47" s="35">
+        <v>78497.168272727286</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="18">
+        <v>572</v>
+      </c>
+      <c r="C48" s="35">
+        <v>85458.203916083919</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18">
+        <v>423</v>
+      </c>
+      <c r="C49" s="35">
+        <v>87635.394104018909</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="18">
+        <v>1514</v>
+      </c>
+      <c r="C50" s="35">
+        <v>87697.746367239102</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="18">
+        <v>824</v>
+      </c>
+      <c r="C51" s="35">
+        <v>92485.245066828676</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="18">
+        <v>535</v>
+      </c>
+      <c r="C52" s="35">
+        <v>94619.934579439258</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="18">
+        <v>273</v>
+      </c>
+      <c r="C53" s="35">
+        <v>100270.64468864469</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="18">
+        <v>344</v>
+      </c>
+      <c r="C54" s="35">
+        <v>115098.61773255814</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="18">
+        <v>468</v>
+      </c>
+      <c r="C55" s="35">
+        <v>118763.54700854702</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="34">
+        <v>5685</v>
+      </c>
+      <c r="C56" s="20">
+        <v>92294.39238423646</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="24">
+        <v>198</v>
+      </c>
+      <c r="C61" s="25">
+        <v>86652.060606060608</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="24">
+        <v>264</v>
+      </c>
+      <c r="C62" s="25">
+        <v>94882.17424242424</v>
+      </c>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="24">
+        <v>374</v>
+      </c>
+      <c r="C63" s="25">
+        <v>101965.25935828876</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="24">
+        <v>976</v>
+      </c>
+      <c r="C64" s="25">
+        <v>103484.14754098361</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="24">
+        <v>557</v>
+      </c>
+      <c r="C65" s="25">
+        <v>105739.9012567325</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="24">
+        <v>230</v>
+      </c>
+      <c r="C66" s="25">
+        <v>106146.36204347826</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="24">
+        <v>320</v>
+      </c>
+      <c r="C67" s="25">
+        <v>106659.565625</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="24">
+        <v>188</v>
+      </c>
+      <c r="C68" s="25">
+        <v>116604.40425531915</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="24">
+        <v>264</v>
+      </c>
+      <c r="C69" s="25">
+        <v>125334.79545454546</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="24">
+        <v>329</v>
+      </c>
+      <c r="C70" s="25">
+        <v>133231.55623100305</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="24">
+        <v>3700</v>
+      </c>
+      <c r="C71" s="25">
+        <v>107466.64385675675</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="1:11" ht="14.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="26">
+        <v>86652.060606060608</v>
+      </c>
+      <c r="C75" s="41">
+        <v>75514.204575342475</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="26">
+        <v>94882.17424242424</v>
+      </c>
+      <c r="C76" s="27">
+        <v>78497.168272727286</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="26">
+        <v>101965.25935828876</v>
+      </c>
+      <c r="C77" s="27">
+        <v>85458.203916083919</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="26">
+        <v>103484.14754098361</v>
+      </c>
+      <c r="C78" s="27">
+        <v>87697.746367239102</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="26">
+        <v>105739.9012567325</v>
+      </c>
+      <c r="C79" s="27">
+        <v>92485.245066828676</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="26">
+        <v>106146.36204347826</v>
+      </c>
+      <c r="C80" s="27">
+        <v>87635.394104018909</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="26">
+        <v>106659.565625</v>
+      </c>
+      <c r="C81" s="27">
+        <v>94619.934579439258</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="26">
+        <v>116604.40425531915</v>
+      </c>
+      <c r="C82" s="27">
+        <v>100270.64468864469</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="26">
+        <v>125334.79545454546</v>
+      </c>
+      <c r="C83" s="27">
+        <v>115098.61773255814</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="26">
+        <v>133231.55623100305</v>
+      </c>
+      <c r="C84" s="27">
+        <v>118763.54700854702</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+    </row>
+    <row r="85" spans="1:11" ht="14.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="28">
+        <v>107466.64385675675</v>
+      </c>
+      <c r="C85" s="29">
+        <v>92294.39238423646</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+    </row>
+    <row r="90" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="22">
         <v>47</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>3</v>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>32</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="B93" s="22">
+        <v>53</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="B7" s="13">
-        <v>9</v>
+      <c r="B94" s="22">
+        <v>71</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="B95" s="22">
+        <v>80</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>12</v>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>35</v>
       </c>
-      <c r="B15" s="13">
-        <v>194</v>
+      <c r="B96" s="22">
+        <v>81</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="22">
+        <v>110</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="22">
+        <v>160</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="22">
+        <v>215</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="22">
+        <v>595</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="22">
+        <v>3907</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13">
-        <v>5643</v>
+      <c r="B102" s="18">
+        <v>5319</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15">
-        <v>5989</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="13">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="13">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13">
-        <v>12</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="13">
-        <v>15</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="13">
-        <v>19</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="13">
-        <v>23</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="13">
-        <v>30</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="13">
-        <v>34</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="13">
-        <v>194</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="15">
-        <v>345</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="21">
-        <v>292</v>
-      </c>
-      <c r="C47" s="44">
-        <v>75514.204575342475</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="21">
-        <v>440</v>
-      </c>
-      <c r="C48" s="44">
-        <v>78497.168272727286</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="21">
-        <v>572</v>
-      </c>
-      <c r="C49" s="44">
-        <v>85458.203916083919</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="21">
-        <v>423</v>
-      </c>
-      <c r="C50" s="44">
-        <v>87635.394104018909</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="21">
-        <v>1514</v>
-      </c>
-      <c r="C51" s="44">
-        <v>87697.746367239102</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="21">
-        <v>824</v>
-      </c>
-      <c r="C52" s="44">
-        <v>92485.245066828676</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="21">
-        <v>535</v>
-      </c>
-      <c r="C53" s="44">
-        <v>94619.934579439258</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="21">
-        <v>273</v>
-      </c>
-      <c r="C54" s="44">
-        <v>100270.64468864469</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="21">
-        <v>344</v>
-      </c>
-      <c r="C55" s="44">
-        <v>115098.61773255814</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="21">
-        <v>468</v>
-      </c>
-      <c r="C56" s="44">
-        <v>118763.54700854702</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="43">
-        <v>5685</v>
-      </c>
-      <c r="C57" s="23">
-        <v>92294.39238423646</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-    </row>
-    <row r="60" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="27">
-        <v>198</v>
-      </c>
-      <c r="C62" s="29">
-        <v>86652.060606060608</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="27">
-        <v>264</v>
-      </c>
-      <c r="C63" s="29">
-        <v>94882.17424242424</v>
-      </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="27">
-        <v>374</v>
-      </c>
-      <c r="C64" s="29">
-        <v>101965.25935828876</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="27">
-        <v>976</v>
-      </c>
-      <c r="C65" s="29">
-        <v>103484.14754098361</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="27">
-        <v>557</v>
-      </c>
-      <c r="C66" s="29">
-        <v>105739.9012567325</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="27">
-        <v>230</v>
-      </c>
-      <c r="C67" s="29">
-        <v>106146.36204347826</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="27">
-        <v>320</v>
-      </c>
-      <c r="C68" s="29">
-        <v>106659.565625</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="27">
-        <v>188</v>
-      </c>
-      <c r="C69" s="29">
-        <v>116604.40425531915</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="27">
-        <v>264</v>
-      </c>
-      <c r="C70" s="29">
-        <v>125334.79545454546</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="27">
-        <v>329</v>
-      </c>
-      <c r="C71" s="29">
-        <v>133231.55623100305</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="27">
-        <v>3700</v>
-      </c>
-      <c r="C72" s="29">
-        <v>107466.64385675675</v>
-      </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="55"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" ht="14.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="31">
-        <v>86652.060606060608</v>
-      </c>
-      <c r="C76" s="50">
-        <v>75514.204575342475</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="31">
-        <v>94882.17424242424</v>
-      </c>
-      <c r="C77" s="32">
-        <v>78497.168272727286</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="31">
-        <v>101965.25935828876</v>
-      </c>
-      <c r="C78" s="32">
-        <v>85458.203916083919</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="31">
-        <v>103484.14754098361</v>
-      </c>
-      <c r="C79" s="32">
-        <v>87697.746367239102</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="31">
-        <v>105739.9012567325</v>
-      </c>
-      <c r="C80" s="32">
-        <v>92485.245066828676</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="31">
-        <v>106146.36204347826</v>
-      </c>
-      <c r="C81" s="32">
-        <v>87635.394104018909</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="31">
-        <v>106659.565625</v>
-      </c>
-      <c r="C82" s="32">
-        <v>94619.934579439258</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="31">
-        <v>116604.40425531915</v>
-      </c>
-      <c r="C83" s="32">
-        <v>100270.64468864469</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="31">
-        <v>125334.79545454546</v>
-      </c>
-      <c r="C84" s="32">
-        <v>115098.61773255814</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="31">
-        <v>133231.55623100305</v>
-      </c>
-      <c r="C85" s="32">
-        <v>118763.54700854702</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" ht="14.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="34">
-        <v>107466.64385675675</v>
-      </c>
-      <c r="C86" s="35">
-        <v>92294.39238423646</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A89" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-    </row>
-    <row r="91" spans="1:11" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="25">
-        <v>47</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="25">
-        <v>53</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="25">
-        <v>71</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="25">
-        <v>80</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" s="25">
-        <v>81</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="25">
-        <v>110</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="25">
-        <v>160</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" s="25">
-        <v>215</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" s="25">
-        <v>595</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" s="25">
-        <v>3907</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103">
-        <v>5319</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="55"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="55"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="55"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="55"/>
+    </row>
+    <row r="113" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+    </row>
+    <row r="114" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+    </row>
+    <row r="115" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+    </row>
+    <row r="116" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
+    </row>
+    <row r="117" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+    </row>
+    <row r="118" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D63:K63"/>
-    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="D62:K62"/>
+    <mergeCell ref="D59:K59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
 </file>